--- a/static/suzdal_67.xlsx
+++ b/static/suzdal_67.xlsx
@@ -7,8 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="1. dfg" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="2. dfg" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="1. Camion" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="2. Camion" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -414,7 +414,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F12"/>
+  <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -433,7 +433,7 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>1. dfg</t>
+          <t>1. Camion</t>
         </is>
       </c>
     </row>
@@ -478,16 +478,16 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Herrod Chandler</t>
+          <t>Garrett Winters</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Teruel</t>
+          <t>Gerona</t>
         </is>
       </c>
       <c r="D4" t="n">
@@ -504,101 +504,101 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Ashton Cox</t>
+          <t>Garrett Winters</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Madrid</t>
+          <t>Saron</t>
         </is>
       </c>
       <c r="D5" t="n">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="E5" t="n">
-        <v>70</v>
+        <v>50</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>03/01/2025</t>
+          <t>02/01/2025</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Ashton Cox</t>
+          <t>Rhona Davidson</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Madrid</t>
+          <t>Saron</t>
         </is>
       </c>
       <c r="D6" t="n">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="E6" t="n">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>04/01/2025</t>
+          <t>02/01/2025</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Garrett Winters</t>
+          <t>Tiger Nixon</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Saron</t>
+          <t>Santander</t>
         </is>
       </c>
       <c r="D7" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E7" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>02/01/2025</t>
+          <t>01/01/2025</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Rhona Davidson</t>
+          <t>Ashton Cox</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Saron</t>
+          <t>Torrelavega</t>
         </is>
       </c>
       <c r="D8" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E8" t="n">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
@@ -607,94 +607,16 @@
       </c>
     </row>
     <row r="9">
-      <c r="A9" t="n">
-        <v>1</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>Tiger Nixon</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>Santander</t>
-        </is>
-      </c>
+      <c r="A9" t="inlineStr"/>
+      <c r="B9" t="inlineStr"/>
+      <c r="C9" t="inlineStr"/>
       <c r="D9" t="n">
-        <v>10</v>
+        <v>56</v>
       </c>
       <c r="E9" t="n">
-        <v>100</v>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>01/01/2025</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="n">
-        <v>3</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>Ashton Cox</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>Torrelavega</t>
-        </is>
-      </c>
-      <c r="D10" t="n">
-        <v>13</v>
-      </c>
-      <c r="E10" t="n">
-        <v>60</v>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>02/01/2025</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="n">
-        <v>8</v>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>Garrett Winters</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>Gerona</t>
-        </is>
-      </c>
-      <c r="D11" t="n">
-        <v>11</v>
-      </c>
-      <c r="E11" t="n">
-        <v>50</v>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>02/01/2025</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr"/>
-      <c r="B12" t="inlineStr"/>
-      <c r="C12" t="inlineStr"/>
-      <c r="D12" t="n">
-        <v>96</v>
-      </c>
-      <c r="E12" t="n">
-        <v>440</v>
-      </c>
-      <c r="F12" t="inlineStr"/>
+        <v>310</v>
+      </c>
+      <c r="F9" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -707,7 +629,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -716,7 +638,7 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="20" customWidth="1" min="2" max="2"/>
-    <col width="24" customWidth="1" min="3" max="3"/>
+    <col width="26" customWidth="1" min="3" max="3"/>
     <col width="18" customWidth="1" min="4" max="4"/>
     <col width="18" customWidth="1" min="5" max="5"/>
     <col width="16" customWidth="1" min="6" max="6"/>
@@ -726,7 +648,7 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>2. dfg</t>
+          <t>2. Camion</t>
         </is>
       </c>
     </row>
@@ -771,67 +693,145 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Ashton Cox</t>
+          <t>Herrod Chandler</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Granada</t>
+          <t>Teruel</t>
         </is>
       </c>
       <c r="D4" t="n">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="E4" t="n">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>04/01/2025</t>
+          <t>02/01/2025</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
+        <v>4</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Ashton Cox</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Madrid</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>14</v>
+      </c>
+      <c r="E5" t="n">
+        <v>70</v>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>03/01/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>5</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Ashton Cox</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Madrid</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
+        <v>15</v>
+      </c>
+      <c r="E6" t="n">
         <v>10</v>
       </c>
-      <c r="B5" t="inlineStr">
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>04/01/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>10</v>
+      </c>
+      <c r="B7" t="inlineStr">
         <is>
           <t>Colleen Hurst</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="C7" t="inlineStr">
         <is>
           <t>Badajoz</t>
         </is>
       </c>
-      <c r="D5" t="n">
+      <c r="D7" t="n">
         <v>11</v>
       </c>
-      <c r="E5" t="n">
+      <c r="E7" t="n">
         <v>50</v>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F7" t="inlineStr">
         <is>
           <t>02/01/2025</t>
         </is>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" t="inlineStr"/>
-      <c r="B6" t="inlineStr"/>
-      <c r="C6" t="inlineStr"/>
-      <c r="D6" t="n">
-        <v>26</v>
-      </c>
-      <c r="E6" t="n">
-        <v>60</v>
-      </c>
-      <c r="F6" t="inlineStr"/>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Ashton Cox</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Granada</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
+        <v>15</v>
+      </c>
+      <c r="E8" t="n">
+        <v>10</v>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>04/01/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr"/>
+      <c r="B9" t="inlineStr"/>
+      <c r="C9" t="inlineStr"/>
+      <c r="D9" t="n">
+        <v>66</v>
+      </c>
+      <c r="E9" t="n">
+        <v>190</v>
+      </c>
+      <c r="F9" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/static/suzdal_67.xlsx
+++ b/static/suzdal_67.xlsx
@@ -7,8 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="1. Camion" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="2. Camion" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="1. suzdalenko" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="2. x" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -414,7 +414,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:F8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -422,7 +422,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="20" customWidth="1" min="2" max="2"/>
+    <col width="24" customWidth="1" min="2" max="2"/>
     <col width="26" customWidth="1" min="3" max="3"/>
     <col width="22" customWidth="1" min="4" max="4"/>
     <col width="18" customWidth="1" min="5" max="5"/>
@@ -433,7 +433,7 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>1. Camion</t>
+          <t>1. suzdalenko</t>
         </is>
       </c>
     </row>
@@ -478,7 +478,7 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
@@ -487,7 +487,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Gerona</t>
+          <t>Saron</t>
         </is>
       </c>
       <c r="D4" t="n">
@@ -504,11 +504,11 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Garrett Winters</t>
+          <t>Rhona Davidson</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -530,93 +530,67 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Rhona Davidson</t>
+          <t>Tiger Nixon</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Saron</t>
+          <t>Santander</t>
         </is>
       </c>
       <c r="D6" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E6" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>02/01/2025</t>
+          <t>01/01/2025</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Tiger Nixon</t>
+          <t>Ashton Cox</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Santander</t>
+          <t>Torrelavega</t>
         </is>
       </c>
       <c r="D7" t="n">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E7" t="n">
-        <v>100</v>
+        <v>60</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>01/01/2025</t>
+          <t>02/01/2025</t>
         </is>
       </c>
     </row>
     <row r="8">
-      <c r="A8" t="n">
-        <v>3</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>Ashton Cox</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>Torrelavega</t>
-        </is>
-      </c>
+      <c r="A8" t="inlineStr"/>
+      <c r="B8" t="inlineStr"/>
+      <c r="C8" t="inlineStr"/>
       <c r="D8" t="n">
-        <v>13</v>
+        <v>45</v>
       </c>
       <c r="E8" t="n">
-        <v>60</v>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>02/01/2025</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr"/>
-      <c r="B9" t="inlineStr"/>
-      <c r="C9" t="inlineStr"/>
-      <c r="D9" t="n">
-        <v>56</v>
-      </c>
-      <c r="E9" t="n">
-        <v>310</v>
-      </c>
-      <c r="F9" t="inlineStr"/>
+        <v>260</v>
+      </c>
+      <c r="F8" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -629,7 +603,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -638,8 +612,8 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="20" customWidth="1" min="2" max="2"/>
-    <col width="26" customWidth="1" min="3" max="3"/>
-    <col width="18" customWidth="1" min="4" max="4"/>
+    <col width="21" customWidth="1" min="3" max="3"/>
+    <col width="17" customWidth="1" min="4" max="4"/>
     <col width="18" customWidth="1" min="5" max="5"/>
     <col width="16" customWidth="1" min="6" max="6"/>
     <col width="24" customWidth="1" min="7" max="7"/>
@@ -648,7 +622,7 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>2. Camion</t>
+          <t>2. x</t>
         </is>
       </c>
     </row>
@@ -693,33 +667,33 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Herrod Chandler</t>
+          <t>Ashton Cox</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Teruel</t>
+          <t>Madrid</t>
         </is>
       </c>
       <c r="D4" t="n">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="E4" t="n">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>02/01/2025</t>
+          <t>03/01/2025</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
@@ -732,106 +706,28 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E5" t="n">
-        <v>70</v>
+        <v>10</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>03/01/2025</t>
+          <t>04/01/2025</t>
         </is>
       </c>
     </row>
     <row r="6">
-      <c r="A6" t="n">
-        <v>5</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Ashton Cox</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>Madrid</t>
-        </is>
-      </c>
+      <c r="A6" t="inlineStr"/>
+      <c r="B6" t="inlineStr"/>
+      <c r="C6" t="inlineStr"/>
       <c r="D6" t="n">
-        <v>15</v>
+        <v>29</v>
       </c>
       <c r="E6" t="n">
-        <v>10</v>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>04/01/2025</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="n">
-        <v>10</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>Colleen Hurst</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>Badajoz</t>
-        </is>
-      </c>
-      <c r="D7" t="n">
-        <v>11</v>
-      </c>
-      <c r="E7" t="n">
-        <v>50</v>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>02/01/2025</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>Ashton Cox</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>Granada</t>
-        </is>
-      </c>
-      <c r="D8" t="n">
-        <v>15</v>
-      </c>
-      <c r="E8" t="n">
-        <v>10</v>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>04/01/2025</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr"/>
-      <c r="B9" t="inlineStr"/>
-      <c r="C9" t="inlineStr"/>
-      <c r="D9" t="n">
-        <v>66</v>
-      </c>
-      <c r="E9" t="n">
-        <v>190</v>
-      </c>
-      <c r="F9" t="inlineStr"/>
+        <v>80</v>
+      </c>
+      <c r="F6" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
